--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H2">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I2">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J2">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N2">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O2">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P2">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q2">
-        <v>2194.777579509308</v>
+        <v>2650.767746813583</v>
       </c>
       <c r="R2">
-        <v>8779.11031803723</v>
+        <v>10603.07098725433</v>
       </c>
       <c r="S2">
-        <v>0.3163709144761159</v>
+        <v>0.9036405948330489</v>
       </c>
       <c r="T2">
-        <v>0.214158867146915</v>
+        <v>0.8751361519525146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H3">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I3">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J3">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.230285</v>
       </c>
       <c r="O3">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P3">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q3">
-        <v>68.48342268654918</v>
+        <v>86.59162649870417</v>
       </c>
       <c r="R3">
-        <v>410.9005361192951</v>
+        <v>519.5497589922251</v>
       </c>
       <c r="S3">
-        <v>0.009871689625443462</v>
+        <v>0.02951888522519928</v>
       </c>
       <c r="T3">
-        <v>0.01002356618580938</v>
+        <v>0.04288161207058475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H4">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I4">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J4">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N4">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O4">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P4">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q4">
-        <v>39.3422895365405</v>
+        <v>7.395862971975833</v>
       </c>
       <c r="R4">
-        <v>236.053737219243</v>
+        <v>44.375177831855</v>
       </c>
       <c r="S4">
-        <v>0.005671078579653706</v>
+        <v>0.002521232583780176</v>
       </c>
       <c r="T4">
-        <v>0.00575832847718115</v>
+        <v>0.003662554218175076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H5">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I5">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J5">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N5">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O5">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P5">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q5">
-        <v>44.2740842772525</v>
+        <v>86.31458978234625</v>
       </c>
       <c r="R5">
-        <v>177.09633710901</v>
+        <v>345.258359129385</v>
       </c>
       <c r="S5">
-        <v>0.00638198269435511</v>
+        <v>0.0294244440492565</v>
       </c>
       <c r="T5">
-        <v>0.004320113264007044</v>
+        <v>0.02849627925731456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H6">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I6">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J6">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N6">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O6">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P6">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q6">
-        <v>1366.859647254004</v>
+        <v>44.27057819795</v>
       </c>
       <c r="R6">
-        <v>8201.157883524022</v>
+        <v>265.6234691877</v>
       </c>
       <c r="S6">
-        <v>0.1970289110839791</v>
+        <v>0.01509173772937562</v>
       </c>
       <c r="T6">
-        <v>0.2000602131653322</v>
+        <v>0.02192352583252825</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.2808935</v>
+        <v>49.6674425</v>
       </c>
       <c r="H7">
-        <v>78.56178700000001</v>
+        <v>99.334885</v>
       </c>
       <c r="I7">
-        <v>0.5430557228788483</v>
+        <v>0.9892249820843532</v>
       </c>
       <c r="J7">
-        <v>0.4421711788282269</v>
+        <v>0.9852150817714589</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N7">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O7">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P7">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q7">
-        <v>53.63371298870268</v>
+        <v>26.48327635031</v>
       </c>
       <c r="R7">
-        <v>321.8022779322161</v>
+        <v>158.89965810186</v>
       </c>
       <c r="S7">
-        <v>0.007731146419300955</v>
+        <v>0.009028087663692681</v>
       </c>
       <c r="T7">
-        <v>0.007850090588982141</v>
+        <v>0.01311495844034157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.049831</v>
       </c>
       <c r="I8">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J8">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N8">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O8">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P8">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q8">
-        <v>0.9280844690606669</v>
+        <v>0.8864989547996667</v>
       </c>
       <c r="R8">
-        <v>5.568506814364</v>
+        <v>5.318993728798</v>
       </c>
       <c r="S8">
-        <v>0.0001337807233539577</v>
+        <v>0.0003022054436104407</v>
       </c>
       <c r="T8">
-        <v>0.0001358389481236968</v>
+        <v>0.0004390090106607136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.049831</v>
       </c>
       <c r="I9">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J9">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>5.230285</v>
       </c>
       <c r="O9">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P9">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q9">
         <v>0.02895892575944445</v>
@@ -1013,10 +1013,10 @@
         <v>0.260630331835</v>
       </c>
       <c r="S9">
-        <v>4.174346371266336E-06</v>
+        <v>9.872030822182327E-06</v>
       </c>
       <c r="T9">
-        <v>6.35785342567459E-06</v>
+        <v>2.151141173706809E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.049831</v>
       </c>
       <c r="I10">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J10">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N10">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O10">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P10">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q10">
-        <v>0.01663629528433333</v>
+        <v>0.002473405979222222</v>
       </c>
       <c r="R10">
-        <v>0.149726657559</v>
+        <v>0.022260653813</v>
       </c>
       <c r="S10">
-        <v>2.398074411611197E-06</v>
+        <v>8.431783784206321E-07</v>
       </c>
       <c r="T10">
-        <v>3.652453403922875E-06</v>
+        <v>1.837307600908606E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.049831</v>
       </c>
       <c r="I11">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J11">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N11">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O11">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P11">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q11">
-        <v>0.018721755855</v>
+        <v>0.0288662760885</v>
       </c>
       <c r="R11">
-        <v>0.11233053513</v>
+        <v>0.173197656531</v>
       </c>
       <c r="S11">
-        <v>2.698687591737269E-06</v>
+        <v>9.840446763615156E-06</v>
       </c>
       <c r="T11">
-        <v>2.740207068593476E-06</v>
+        <v>1.429505950171727E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.049831</v>
       </c>
       <c r="I12">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J12">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N12">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O12">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P12">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q12">
-        <v>0.5779907822303334</v>
+        <v>0.01480545451333334</v>
       </c>
       <c r="R12">
-        <v>5.201917040073</v>
+        <v>0.13324909062</v>
       </c>
       <c r="S12">
-        <v>8.331571911439815E-05</v>
+        <v>5.047145205114442E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001268963049712918</v>
+        <v>1.099786057799045E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.049831</v>
       </c>
       <c r="I13">
-        <v>0.0002296367463126052</v>
+        <v>0.0003308275173234821</v>
       </c>
       <c r="J13">
-        <v>0.0002804650053618227</v>
+        <v>0.0004942297234224771</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N13">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O13">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P13">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q13">
-        <v>0.02267957195644445</v>
+        <v>0.008856829057333334</v>
       </c>
       <c r="R13">
-        <v>0.204116147608</v>
+        <v>0.079711461516</v>
       </c>
       <c r="S13">
-        <v>3.269195469634501E-06</v>
+        <v>3.01927254370889E-06</v>
       </c>
       <c r="T13">
-        <v>4.97923836864313E-06</v>
+        <v>6.579073344079079E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H14">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I14">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J14">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N14">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O14">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P14">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q14">
-        <v>1.022101655146</v>
+        <v>2.568055700712333</v>
       </c>
       <c r="R14">
-        <v>6.132609930876001</v>
+        <v>15.408334204274</v>
       </c>
       <c r="S14">
-        <v>0.0001473330319869528</v>
+        <v>0.0008754442495935853</v>
       </c>
       <c r="T14">
-        <v>0.0001495997598699676</v>
+        <v>0.001271743848526138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H15">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I15">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J15">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>5.230285</v>
       </c>
       <c r="O15">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P15">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q15">
-        <v>0.03189253450166667</v>
+        <v>0.08388970340055556</v>
       </c>
       <c r="R15">
-        <v>0.287032810515</v>
+        <v>0.7550073306050001</v>
       </c>
       <c r="S15">
-        <v>4.597217685953025E-06</v>
+        <v>2.859780588939587E-05</v>
       </c>
       <c r="T15">
-        <v>7.001919250016973E-06</v>
+        <v>6.231536229417411E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H16">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I16">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J16">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N16">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O16">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P16">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q16">
-        <v>0.018321591959</v>
+        <v>0.007165089468777778</v>
       </c>
       <c r="R16">
-        <v>0.164894327631</v>
+        <v>0.06448580521900001</v>
       </c>
       <c r="S16">
-        <v>2.641005109967909E-06</v>
+        <v>2.442562430217204E-06</v>
       </c>
       <c r="T16">
-        <v>4.022455707368574E-06</v>
+        <v>5.32240701800004E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H17">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I17">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J17">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N17">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O17">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P17">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q17">
-        <v>0.020618314695</v>
+        <v>0.0836213110755</v>
       </c>
       <c r="R17">
-        <v>0.12370988817</v>
+        <v>0.501727866453</v>
       </c>
       <c r="S17">
-        <v>2.972071127349433E-06</v>
+        <v>2.85063115664574E-05</v>
       </c>
       <c r="T17">
-        <v>3.017796626945904E-06</v>
+        <v>4.141066252436019E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H18">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I18">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J18">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N18">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O18">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P18">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q18">
-        <v>0.6365426368729999</v>
+        <v>0.04288920100666667</v>
       </c>
       <c r="R18">
-        <v>5.728883731857</v>
+        <v>0.38600280906</v>
       </c>
       <c r="S18">
-        <v>9.175580159497211E-05</v>
+        <v>1.462082943938282E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001397512054849295</v>
+        <v>3.185916734592234E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.018293</v>
+        <v>0.04811766666666667</v>
       </c>
       <c r="H19">
-        <v>0.054879</v>
+        <v>0.144353</v>
       </c>
       <c r="I19">
-        <v>0.0002528995003289009</v>
+        <v>0.0009583581426862118</v>
       </c>
       <c r="J19">
-        <v>0.0003088767841153392</v>
+        <v>0.001431710045257066</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N19">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O19">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P19">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q19">
-        <v>0.02497706707466667</v>
+        <v>0.02565691727866667</v>
       </c>
       <c r="R19">
-        <v>0.224793603672</v>
+        <v>0.230912255508</v>
       </c>
       <c r="S19">
-        <v>3.600372823705559E-06</v>
+        <v>8.746383767173233E-06</v>
       </c>
       <c r="T19">
-        <v>5.48364717611058E-06</v>
+        <v>1.905859754847078E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H20">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I20">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J20">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N20">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O20">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P20">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q20">
-        <v>2.545560012398</v>
+        <v>7.0604942492325</v>
       </c>
       <c r="R20">
-        <v>10.182240049592</v>
+        <v>28.24197699693</v>
       </c>
       <c r="S20">
-        <v>0.000366935199491258</v>
+        <v>0.002406906161756791</v>
       </c>
       <c r="T20">
-        <v>0.0002483870136086975</v>
+        <v>0.002330982703250284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H21">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I21">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J21">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>5.230285</v>
       </c>
       <c r="O21">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P21">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q21">
-        <v>0.07942885143833332</v>
+        <v>0.2306424927875</v>
       </c>
       <c r="R21">
-        <v>0.47657310863</v>
+        <v>1.383854956725</v>
       </c>
       <c r="S21">
-        <v>1.144944189331077E-05</v>
+        <v>7.862549241698273E-05</v>
       </c>
       <c r="T21">
-        <v>1.162559227068727E-05</v>
+        <v>0.0001142179943098104</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>0.5</v>
       </c>
       <c r="G22">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H22">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I22">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J22">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N22">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O22">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P22">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q22">
-        <v>0.04563020871699999</v>
+        <v>0.0196993674925</v>
       </c>
       <c r="R22">
-        <v>0.2737812523019999</v>
+        <v>0.118196204955</v>
       </c>
       <c r="S22">
-        <v>6.577464155962825E-06</v>
+        <v>6.715468822251899E-06</v>
       </c>
       <c r="T22">
-        <v>6.678658852092962E-06</v>
+        <v>9.755454066472746E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.5</v>
       </c>
       <c r="G23">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H23">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I23">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J23">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N23">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O23">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P23">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q23">
-        <v>0.05135023228499999</v>
+        <v>0.22990458727125</v>
       </c>
       <c r="R23">
-        <v>0.20540092914</v>
+        <v>0.9196183490850001</v>
       </c>
       <c r="S23">
-        <v>7.401989203023714E-06</v>
+        <v>7.837394213294283E-05</v>
       </c>
       <c r="T23">
-        <v>5.010579512273489E-06</v>
+        <v>7.5901714159095E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.5</v>
       </c>
       <c r="G24">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H24">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I24">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J24">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N24">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O24">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P24">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q24">
-        <v>1.585319302099</v>
+        <v>0.11791759695</v>
       </c>
       <c r="R24">
-        <v>9.511915812593999</v>
+        <v>0.7075055817000001</v>
       </c>
       <c r="S24">
-        <v>0.000228519245879043</v>
+        <v>4.019783610890423E-05</v>
       </c>
       <c r="T24">
-        <v>0.0002320350287245723</v>
+        <v>5.839475308598271E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.5</v>
       </c>
       <c r="G25">
-        <v>0.045559</v>
+        <v>0.1322925</v>
       </c>
       <c r="H25">
-        <v>0.09111799999999999</v>
+        <v>0.264585</v>
       </c>
       <c r="I25">
-        <v>0.000629850124937648</v>
+        <v>0.002634865806557169</v>
       </c>
       <c r="J25">
-        <v>0.0005128416118191198</v>
+        <v>0.002624185173320546</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N25">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O25">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P25">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q25">
-        <v>0.06220577263733334</v>
+        <v>0.07053994851000001</v>
       </c>
       <c r="R25">
-        <v>0.373234635824</v>
+        <v>0.42323969106</v>
       </c>
       <c r="S25">
-        <v>8.966784315049558E-06</v>
+        <v>2.404690531929572E-05</v>
       </c>
       <c r="T25">
-        <v>9.104738850796183E-06</v>
+        <v>3.493255444890055E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H26">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I26">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J26">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N26">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O26">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P26">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q26">
-        <v>1828.963627505283</v>
+        <v>15.056890587809</v>
       </c>
       <c r="R26">
-        <v>10973.7817650317</v>
+        <v>90.34134352685399</v>
       </c>
       <c r="S26">
-        <v>0.2636398789469895</v>
+        <v>0.005132859181442544</v>
       </c>
       <c r="T26">
-        <v>0.2676959949219646</v>
+        <v>0.007456422373418826</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H27">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I27">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J27">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>5.230285</v>
       </c>
       <c r="O27">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P27">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q27">
-        <v>57.06896696510444</v>
+        <v>0.4918577448283333</v>
       </c>
       <c r="R27">
-        <v>513.62070268594</v>
+        <v>4.426719703455</v>
       </c>
       <c r="S27">
-        <v>0.008226328460578653</v>
+        <v>0.00016767316776213</v>
       </c>
       <c r="T27">
-        <v>0.01252933655525764</v>
+        <v>0.0003653641904039686</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H28">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I28">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J28">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N28">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O28">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P28">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q28">
-        <v>32.78492420229733</v>
+        <v>0.04200997982766667</v>
       </c>
       <c r="R28">
-        <v>295.064317820676</v>
+        <v>0.378089818449</v>
       </c>
       <c r="S28">
-        <v>0.004725853110468666</v>
+        <v>1.432110497271219E-05</v>
       </c>
       <c r="T28">
-        <v>0.007197840982829904</v>
+        <v>3.12060599431641E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H29">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I29">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J29">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N29">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O29">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P29">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q29">
-        <v>36.89471340522</v>
+        <v>0.4902841209105</v>
       </c>
       <c r="R29">
-        <v>221.36828043132</v>
+        <v>2.941704725463</v>
       </c>
       <c r="S29">
-        <v>0.005318267476540058</v>
+        <v>0.0001671367230076381</v>
       </c>
       <c r="T29">
-        <v>0.00540008935324909</v>
+        <v>0.0002427968422277684</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H30">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I30">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J30">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N30">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O30">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P30">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q30">
-        <v>1139.038689875441</v>
+        <v>0.25146573214</v>
       </c>
       <c r="R30">
-        <v>10251.34820887897</v>
+        <v>2.26319158926</v>
       </c>
       <c r="S30">
-        <v>0.1641891712872959</v>
+        <v>8.572408655728912E-05</v>
       </c>
       <c r="T30">
-        <v>0.2500728478865854</v>
+        <v>0.0001867950125899487</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>32.73376133333333</v>
+        <v>0.282121</v>
       </c>
       <c r="H31">
-        <v>98.201284</v>
+        <v>0.846363</v>
       </c>
       <c r="I31">
-        <v>0.4525420589889847</v>
+        <v>0.005618995606037493</v>
       </c>
       <c r="J31">
-        <v>0.5527086280347149</v>
+        <v>0.0083943278562545</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N31">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O31">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P31">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q31">
-        <v>44.69432856441245</v>
+        <v>0.150430302652</v>
       </c>
       <c r="R31">
-        <v>402.2489570797121</v>
+        <v>1.353872723868</v>
       </c>
       <c r="S31">
-        <v>0.006442559707111857</v>
+        <v>5.128134229517944E-05</v>
       </c>
       <c r="T31">
-        <v>0.009812518334828133</v>
+        <v>0.0001117433776708234</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H32">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I32">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J32">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.87392200000001</v>
+        <v>53.370329</v>
       </c>
       <c r="N32">
-        <v>111.747844</v>
+        <v>106.740658</v>
       </c>
       <c r="O32">
-        <v>0.5825754174893317</v>
+        <v>0.9134833947774216</v>
       </c>
       <c r="P32">
-        <v>0.4843347495294592</v>
+        <v>0.8882691385306266</v>
       </c>
       <c r="Q32">
-        <v>13.29596335016733</v>
+        <v>3.301239490404667</v>
       </c>
       <c r="R32">
-        <v>79.775780101004</v>
+        <v>19.807436942428</v>
       </c>
       <c r="S32">
-        <v>0.001916575111394117</v>
+        <v>0.001125384907969237</v>
       </c>
       <c r="T32">
-        <v>0.001946061738977224</v>
+        <v>0.001634828642256145</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H33">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I33">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J33">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>5.230285</v>
       </c>
       <c r="O33">
-        <v>0.01817804179120264</v>
+        <v>0.02984041624484787</v>
       </c>
       <c r="P33">
-        <v>0.02266897225724272</v>
+        <v>0.04352512752188261</v>
       </c>
       <c r="Q33">
-        <v>0.4148725987705555</v>
+        <v>0.1078403407011111</v>
       </c>
       <c r="R33">
-        <v>3.733853388935</v>
+        <v>0.9705630663100001</v>
       </c>
       <c r="S33">
-        <v>5.980269922999128E-05</v>
+        <v>3.676252275790343E-05</v>
       </c>
       <c r="T33">
-        <v>9.108415122932027E-05</v>
+        <v>8.010649255284416E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.06185533333333334</v>
+      </c>
+      <c r="H34">
+        <v>0.185566</v>
+      </c>
+      <c r="I34">
+        <v>0.001231970843042469</v>
+      </c>
+      <c r="J34">
+        <v>0.001840465430286677</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G34">
-        <v>0.2379636666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.7138909999999999</v>
-      </c>
-      <c r="I34">
-        <v>0.003289831760587828</v>
-      </c>
-      <c r="J34">
-        <v>0.004018009735762015</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
       <c r="M34">
-        <v>1.001563</v>
+        <v>0.1489076666666667</v>
       </c>
       <c r="N34">
-        <v>3.004688999999999</v>
+        <v>0.446723</v>
       </c>
       <c r="O34">
-        <v>0.0104429036298341</v>
+        <v>0.002548694816085008</v>
       </c>
       <c r="P34">
-        <v>0.01302284896189067</v>
+        <v>0.003717517409081525</v>
       </c>
       <c r="Q34">
-        <v>0.2383356038776666</v>
+        <v>0.009210733357555557</v>
       </c>
       <c r="R34">
-        <v>2.145020434899</v>
+        <v>0.08289660021799999</v>
       </c>
       <c r="S34">
-        <v>3.435539603418613E-05</v>
+        <v>3.139917701230219E-06</v>
       </c>
       <c r="T34">
-        <v>5.232593391623497E-05</v>
+        <v>6.84196227790344E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H35">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I35">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J35">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.127115</v>
+        <v>1.7378505</v>
       </c>
       <c r="N35">
-        <v>2.25423</v>
+        <v>3.475701</v>
       </c>
       <c r="O35">
-        <v>0.01175198497222887</v>
+        <v>0.02974494637939443</v>
       </c>
       <c r="P35">
-        <v>0.009770228071977768</v>
+        <v>0.02892391700508383</v>
       </c>
       <c r="Q35">
-        <v>0.268212418155</v>
+        <v>0.107495321961</v>
       </c>
       <c r="R35">
-        <v>1.60927450893</v>
+        <v>0.644971931766</v>
       </c>
       <c r="S35">
-        <v>3.866205341158939E-05</v>
+        <v>3.66449066672756E-05</v>
       </c>
       <c r="T35">
-        <v>3.925687151382201E-05</v>
+        <v>5.323346935633775E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H36">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I36">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J36">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.797061</v>
+        <v>0.89134</v>
       </c>
       <c r="N36">
-        <v>104.391183</v>
+        <v>2.67402</v>
       </c>
       <c r="O36">
-        <v>0.3628152743506486</v>
+        <v>0.01525612272506147</v>
       </c>
       <c r="P36">
-        <v>0.4524496908538918</v>
+        <v>0.02225252763397492</v>
       </c>
       <c r="Q36">
-        <v>8.280436224783665</v>
+        <v>0.05513413281333334</v>
       </c>
       <c r="R36">
-        <v>74.52392602305299</v>
+        <v>0.49620719532</v>
       </c>
       <c r="S36">
-        <v>0.00119360121278515</v>
+        <v>1.879509837515335E-05</v>
       </c>
       <c r="T36">
-        <v>0.001817947262793451</v>
+        <v>4.095500784682982E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.2379636666666667</v>
+        <v>0.06185533333333334</v>
       </c>
       <c r="H37">
-        <v>0.7138909999999999</v>
+        <v>0.185566</v>
       </c>
       <c r="I37">
-        <v>0.003289831760587828</v>
+        <v>0.001231970843042469</v>
       </c>
       <c r="J37">
-        <v>0.004018009735762015</v>
+        <v>0.001840465430286677</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.365389333333334</v>
+        <v>0.533212</v>
       </c>
       <c r="N37">
-        <v>4.096168</v>
+        <v>1.599636</v>
       </c>
       <c r="O37">
-        <v>0.014236377766754</v>
+        <v>0.009126425057189708</v>
       </c>
       <c r="P37">
-        <v>0.01775351032553778</v>
+        <v>0.01331177189935046</v>
       </c>
       <c r="Q37">
-        <v>0.3249130521875556</v>
+        <v>0.03298200599733334</v>
       </c>
       <c r="R37">
-        <v>2.924217469688</v>
+        <v>0.296838053976</v>
       </c>
       <c r="S37">
-        <v>4.683528773279371E-05</v>
+        <v>1.124348957166992E-05</v>
       </c>
       <c r="T37">
-        <v>7.133377733196228E-05</v>
+        <v>2.449985599661613E-05</v>
       </c>
     </row>
   </sheetData>
